--- a/Key.xlsx
+++ b/Key.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>KEYWORDS</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Library</t>
   </si>
   <si>
-    <t>Freezepix</t>
-  </si>
-  <si>
     <t>Guest Sessions</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Laundary</t>
   </si>
   <si>
-    <t>room cleaning</t>
-  </si>
-  <si>
     <t>Coding</t>
   </si>
   <si>
@@ -196,6 +190,9 @@
   </si>
   <si>
     <t>dinner(midnight)</t>
+  </si>
+  <si>
+    <t>Python Class</t>
   </si>
 </sst>
 </file>
@@ -562,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,13 +608,13 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -637,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -743,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,11 +760,11 @@
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -775,7 +772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -792,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -800,8 +797,14 @@
       <c r="L18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>9</v>
+      </c>
+      <c r="O18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -818,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -826,8 +829,14 @@
       <c r="L19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -840,6 +849,12 @@
       <c r="E20" t="s">
         <v>22</v>
       </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
       <c r="K20">
         <v>3</v>
       </c>
@@ -847,7 +862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -867,7 +882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -887,7 +902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -904,10 +919,10 @@
         <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -918,16 +933,16 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -938,37 +953,13 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K25">
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K26">
-        <v>9</v>
-      </c>
-      <c r="L26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K28">
-        <v>11</v>
-      </c>
-      <c r="L28" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Key.xlsx
+++ b/Key.xlsx
@@ -144,9 +144,6 @@
     <t>Faction</t>
   </si>
   <si>
-    <t>Reading Books</t>
-  </si>
-  <si>
     <t>Tutorials</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>Python Class</t>
+  </si>
+  <si>
+    <t>Reading</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,13 +608,13 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,13 +754,13 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K12">
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -789,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -833,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -913,13 +913,13 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -933,13 +933,13 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -953,13 +953,13 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25">
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Key.xlsx
+++ b/Key.xlsx
@@ -562,7 +562,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Key.xlsx
+++ b/Key.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>KEYWORDS</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>FTP</t>
-  </si>
-  <si>
     <t>Lectures</t>
   </si>
   <si>
@@ -193,13 +190,115 @@
   </si>
   <si>
     <t>Reading</t>
+  </si>
+  <si>
+    <t>PRIORITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major </t>
+  </si>
+  <si>
+    <t>Phy</t>
+  </si>
+  <si>
+    <t>Icp</t>
+  </si>
+  <si>
+    <t>Iee</t>
+  </si>
+  <si>
+    <t>Anotiste</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>Vis/In</t>
+  </si>
+  <si>
+    <t>Exams</t>
+  </si>
+  <si>
+    <t>Mid-Sem</t>
+  </si>
+  <si>
+    <t>End-Sem</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Tut</t>
+  </si>
+  <si>
+    <t>Lab File</t>
+  </si>
+  <si>
+    <t>GLAb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>TableTennis</t>
+  </si>
+  <si>
+    <t>League</t>
+  </si>
+  <si>
+    <t>BasketBall</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Volleyball</t>
+  </si>
+  <si>
+    <t>HIGH P</t>
+  </si>
+  <si>
+    <t>LOW P</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>Outing</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>CineU</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>Snuphoria</t>
+  </si>
+  <si>
+    <t>Particiation</t>
+  </si>
+  <si>
+    <t>RoboYAntriki</t>
+  </si>
+  <si>
+    <t>Gaming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +318,62 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +383,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -255,6 +468,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,51 +824,51 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>51</v>
+      <c r="H5" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
-        <v>48</v>
+      <c r="L5" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G6">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>56</v>
+      <c r="H6" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -647,7 +876,7 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D7">
@@ -659,7 +888,7 @@
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -667,19 +896,19 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -687,19 +916,19 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -707,19 +936,19 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K10">
         <v>6</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -727,40 +956,40 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>7</v>
       </c>
-      <c r="L11" t="s">
-        <v>49</v>
+      <c r="L11" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
-        <v>58</v>
+      <c r="E12" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="K12">
         <v>8</v>
       </c>
-      <c r="L12" t="s">
-        <v>50</v>
+      <c r="L12" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -776,89 +1005,89 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
-        <v>53</v>
+      <c r="H18" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="N18">
         <v>9</v>
       </c>
-      <c r="O18" t="s">
-        <v>46</v>
+      <c r="O18" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
-      <c r="H19" t="s">
-        <v>55</v>
+      <c r="H19" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="9" t="s">
         <v>36</v>
       </c>
       <c r="N19">
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K20">
         <v>3</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -866,19 +1095,13 @@
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="E21" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -886,80 +1109,81 @@
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D22">
         <v>13</v>
       </c>
-      <c r="E22" t="s">
-        <v>42</v>
+      <c r="E22" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D23">
         <v>14</v>
       </c>
-      <c r="E23" t="s">
-        <v>43</v>
+      <c r="E23" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="K23">
         <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D24">
         <v>15</v>
       </c>
-      <c r="E24" t="s">
-        <v>47</v>
+      <c r="E24" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="K24">
         <v>7</v>
       </c>
-      <c r="L24" t="s">
-        <v>44</v>
-      </c>
+      <c r="L24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D25">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
-        <v>52</v>
+      <c r="E25" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="K25">
         <v>8</v>
       </c>
-      <c r="L25" t="s">
-        <v>45</v>
+      <c r="L25" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -970,13 +1194,394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" ht="30" x14ac:dyDescent="0.4">
+      <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="5" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="I7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15">
+        <v>9</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="12">
+        <v>8</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="6">
+        <v>7</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="15">
+        <v>9</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="6">
+        <v>7</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="15">
+        <v>9</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="12">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="15">
+        <v>9</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="12">
+        <v>8</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="15">
+        <v>9</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="15">
+        <v>9</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="12">
+        <v>8</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="C16" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="14">
+        <v>5</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="14">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="19">
+        <v>4</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="14">
+        <v>5</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="19">
+        <v>4</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="14">
+        <v>5</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="19">
+        <v>4</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="14">
+        <v>5</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="19">
+        <v>4</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="14">
+        <v>5</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="19">
+        <v>4</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="14">
+        <v>5</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="14">
+        <v>5</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="14">
+        <v>5</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="14">
+        <v>5</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="19">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
